--- a/artfynd/A 34063-2020.xlsx
+++ b/artfynd/A 34063-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111361609</v>
+        <v>111361602</v>
       </c>
       <c r="B2" t="n">
-        <v>96348</v>
+        <v>4717</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,38 +692,43 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>220787</v>
+        <v>102306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489443.2187621754</v>
+        <v>489344.6370209887</v>
       </c>
       <c r="R2" t="n">
-        <v>6396665.828800219</v>
+        <v>6396629.226497034</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111361602</v>
+        <v>111361609</v>
       </c>
       <c r="B3" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,43 +809,38 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P3" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489344.6370209887</v>
+        <v>489443.2187621754</v>
       </c>
       <c r="R3" t="n">
-        <v>6396629.226497034</v>
+        <v>6396665.828800219</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>

--- a/artfynd/A 34063-2020.xlsx
+++ b/artfynd/A 34063-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111361602</v>
+        <v>111361603</v>
       </c>
       <c r="B2" t="n">
-        <v>4717</v>
+        <v>93289</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,39 +696,34 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>102306</v>
+        <v>2170</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489344.6370209887</v>
+        <v>489349.8979105932</v>
       </c>
       <c r="R2" t="n">
-        <v>6396629.226497034</v>
+        <v>6396594.48797696</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -909,10 +904,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111361603</v>
+        <v>111361602</v>
       </c>
       <c r="B4" t="n">
-        <v>93289</v>
+        <v>4717</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -925,34 +920,39 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2170</v>
+        <v>102306</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489349.8979105932</v>
+        <v>489344.6370209887</v>
       </c>
       <c r="R4" t="n">
-        <v>6396594.48797696</v>
+        <v>6396629.226497034</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>

--- a/artfynd/A 34063-2020.xlsx
+++ b/artfynd/A 34063-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111361603</v>
+        <v>111361602</v>
       </c>
       <c r="B2" t="n">
-        <v>93289</v>
+        <v>4717</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,34 +696,39 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2170</v>
+        <v>102306</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Flagellkvastmossa</t>
+          <t>Granbarkgnagare</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Dicranum flagellare</t>
+          <t>Microbregma emarginatum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Hedw.</t>
+          <t>(Duftschmid, 1825)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska gnagspår</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>489349.8979105932</v>
+        <v>489344.6370209887</v>
       </c>
       <c r="R2" t="n">
-        <v>6396594.48797696</v>
+        <v>6396629.226497034</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -792,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111361609</v>
+        <v>111361603</v>
       </c>
       <c r="B3" t="n">
-        <v>96348</v>
+        <v>93289</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -804,25 +809,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>220787</v>
+        <v>2170</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Flagellkvastmossa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dicranum flagellare</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Hedw.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -832,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>489443.2187621754</v>
+        <v>489349.8979105932</v>
       </c>
       <c r="R3" t="n">
-        <v>6396665.828800219</v>
+        <v>6396594.48797696</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,10 +909,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111361602</v>
+        <v>111361609</v>
       </c>
       <c r="B4" t="n">
-        <v>4717</v>
+        <v>96348</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -916,43 +921,38 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102306</v>
+        <v>220787</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granbarkgnagare</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Microbregma emarginatum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Duftschmid, 1825)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska gnagspår</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
           <t>Svartåmaden, Norra Solberga, Sm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>489344.6370209887</v>
+        <v>489443.2187621754</v>
       </c>
       <c r="R4" t="n">
-        <v>6396629.226497034</v>
+        <v>6396665.828800219</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
